--- a/experiment/linear/ex9_1_8/compare/C-Estacionario/ex9_1_8_C-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_8/compare/C-Estacionario/ex9_1_8_C-Estacionario.xlsx
@@ -500,13 +500,13 @@
         <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0.00025632</v>
+        <v>0.00018558</v>
       </c>
       <c r="F2">
-        <v>0.02706399</v>
+        <v>0.01528371</v>
       </c>
       <c r="G2">
-        <v>0.000463703256</v>
+        <v>0.00035320563900000004</v>
       </c>
       <c r="H2">
         <v>1576</v>
@@ -541,13 +541,13 @@
         <v>0.0</v>
       </c>
       <c r="E3">
-        <v>0.00259884</v>
+        <v>0.00192375</v>
       </c>
       <c r="F3">
-        <v>0.00819648</v>
+        <v>0.00979911</v>
       </c>
       <c r="G3">
-        <v>0.0032048695571245188</v>
+        <v>0.00244350859030837</v>
       </c>
       <c r="H3">
         <v>1953</v>
@@ -582,13 +582,13 @@
         <v>0.0</v>
       </c>
       <c r="E4">
-        <v>0.00500571</v>
+        <v>0.00434079</v>
       </c>
       <c r="F4">
-        <v>0.01021131</v>
+        <v>0.01065708</v>
       </c>
       <c r="G4">
-        <v>0.006230540898876404</v>
+        <v>0.005334742019230769</v>
       </c>
       <c r="H4">
         <v>5070</v>

--- a/experiment/linear/ex9_1_8/compare/C-Estacionario/ex9_1_8_C-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_8/compare/C-Estacionario/ex9_1_8_C-Estacionario.xlsx
@@ -500,13 +500,13 @@
         <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0.00018558</v>
+        <v>0.000260678</v>
       </c>
       <c r="F2">
-        <v>0.01528371</v>
+        <v>0.017472907</v>
       </c>
       <c r="G2">
-        <v>0.00035320563900000004</v>
+        <v>0.0004503267894</v>
       </c>
       <c r="H2">
         <v>1576</v>
@@ -541,13 +541,13 @@
         <v>0.0</v>
       </c>
       <c r="E3">
-        <v>0.00192375</v>
+        <v>0.002693689</v>
       </c>
       <c r="F3">
-        <v>0.00979911</v>
+        <v>0.007200156</v>
       </c>
       <c r="G3">
-        <v>0.00244350859030837</v>
+        <v>0.003091181772136223</v>
       </c>
       <c r="H3">
         <v>1953</v>
@@ -582,13 +582,13 @@
         <v>0.0</v>
       </c>
       <c r="E4">
-        <v>0.00434079</v>
+        <v>0.005545441</v>
       </c>
       <c r="F4">
-        <v>0.01065708</v>
+        <v>0.01091392</v>
       </c>
       <c r="G4">
-        <v>0.005334742019230769</v>
+        <v>0.006741560248313091</v>
       </c>
       <c r="H4">
         <v>5070</v>
